--- a/pred_ohlcv/54_21/2020-01-13 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LBA ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-16193.9375</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-34473.3308</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-24567.8443</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32061.8325</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-28759.4684</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-29360.6894</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-29793.4673</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-36664.4664</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-63458.6462</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-56996.93000000001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-66556.04800000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>544921.784852495</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>453305.230152495</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>373320.598752495</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>121618.443052495</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>121618.443052495</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>36207.29555249498</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LBA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-16215.0375</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-16193.9375</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-31112.0922</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-31222.0922</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-34473.3308</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-38006.8463</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-37984.8463</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-27065.3892</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-43718.973</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-43697.973</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-43697.973</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-24567.8443</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-32061.8325</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-28759.4684</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-29360.6894</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-29793.4673</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-36664.4664</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-63458.6462</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-98566.32520000001</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-56996.93000000001</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-66556.04800000001</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>623279.456152495</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>544921.784852495</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>453305.230152495</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>458610.3350524949</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>121618.443052495</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>121618.443052495</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>36207.29555249498</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>39099.05715249498</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
